--- a/GlobalReserves/BalSheets/ECBASSETSW.xlsx
+++ b/GlobalReserves/BalSheets/ECBASSETSW.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1271"/>
+  <dimension ref="A1:G1292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32226,6 +32226,531 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1272">
+      <c r="A1272" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1272" t="n">
+        <v>7839385000000</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>7839385000000</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>7839385000000</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>7839385000000</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1273" t="n">
+        <v>7830796000000</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>7830796000000</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>7830796000000</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>7830796000000</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2" t="n">
+        <v>44995</v>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1274" t="n">
+        <v>7829368000000</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>7829368000000</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>7829368000000</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>7829368000000</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1275" t="n">
+        <v>7831859000000</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>7831859000000</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>7831859000000</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>7831859000000</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1276" t="n">
+        <v>7835921000000</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>7835921000000</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>7835921000000</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>7835921000000</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1277" t="n">
+        <v>7729612000000</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>7729612000000</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>7729612000000</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>7729612000000</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45023</v>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1278" t="n">
+        <v>7729251000000</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>7729251000000</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>7729251000000</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>7729251000000</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1279" t="n">
+        <v>7730924000000</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>7730924000000</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>7730924000000</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>7730924000000</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45037</v>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1280" t="n">
+        <v>7714222000000</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>7714222000000</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>7714222000000</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>7714222000000</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1281" t="n">
+        <v>7719816000000</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>7719816000000</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>7719816000000</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>7719816000000</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45051</v>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1282" t="n">
+        <v>7716913000000</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>7716913000000</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>7716913000000</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>7716913000000</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1283" t="n">
+        <v>7728510000000</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>7728510000000</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>7728510000000</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>7728510000000</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45065</v>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1284" t="n">
+        <v>7730118000000</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>7730118000000</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>7730118000000</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>7730118000000</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45072</v>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1285" t="n">
+        <v>7713658000000</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>7713658000000</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>7713658000000</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>7713658000000</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45079</v>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1286" t="n">
+        <v>7712715000000</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>7712715000000</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>7712715000000</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>7712715000000</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1287" t="n">
+        <v>7714391000000</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>7714391000000</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>7714391000000</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>7714391000000</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45093</v>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1288" t="n">
+        <v>7709739000000</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>7709739000000</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>7709739000000</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>7709739000000</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1289" t="n">
+        <v>7710607000000</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>7710607000000</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>7710607000000</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>7710607000000</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1290" t="n">
+        <v>7219695000000</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>7219695000000</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>7219695000000</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>7219695000000</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="n">
+        <v>45114</v>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1291" t="n">
+        <v>7206902000000</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>7206902000000</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>7206902000000</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>7206902000000</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1292" t="n">
+        <v>7205494000000</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>7205494000000</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>7205494000000</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>7205494000000</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/ECBASSETSW.xlsx
+++ b/GlobalReserves/BalSheets/ECBASSETSW.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1292"/>
+  <dimension ref="A1:G1293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32751,6 +32751,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1293" t="n">
+        <v>7205494000000</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>7205494000000</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>7205494000000</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>7205494000000</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/ECBASSETSW.xlsx
+++ b/GlobalReserves/BalSheets/ECBASSETSW.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1293"/>
+  <dimension ref="A1:G1296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32776,6 +32776,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1294" t="n">
+        <v>7205494000000</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>7205494000000</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>7205494000000</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>7205494000000</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1295" t="n">
+        <v>7186888000000</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>7186888000000</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>7186888000000</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>7186888000000</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1296" t="n">
+        <v>7189296000000</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>7189296000000</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>7189296000000</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>7189296000000</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/ECBASSETSW.xlsx
+++ b/GlobalReserves/BalSheets/ECBASSETSW.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1296"/>
+  <dimension ref="A1:G1297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32851,6 +32851,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1297" t="n">
+        <v>7189296000000</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>7189296000000</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>7189296000000</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>7189296000000</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/ECBASSETSW.xlsx
+++ b/GlobalReserves/BalSheets/ECBASSETSW.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1297"/>
+  <dimension ref="A1:G1301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32876,6 +32876,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1298" t="n">
+        <v>7189296000000</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>7189296000000</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>7189296000000</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>7189296000000</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1299" t="n">
+        <v>7164560000000</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>7164560000000</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>7164560000000</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>7164560000000</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45149</v>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1300" t="n">
+        <v>7166516000000</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>7166516000000</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>7166516000000</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>7166516000000</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1301" t="n">
+        <v>7153069000000</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>7153069000000</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>7153069000000</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>7153069000000</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/ECBASSETSW.xlsx
+++ b/GlobalReserves/BalSheets/ECBASSETSW.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1301"/>
+  <dimension ref="A1:G1303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32976,6 +32976,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1302" t="n">
+        <v>7153069000000</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>7153069000000</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>7153069000000</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>7153069000000</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1303" t="n">
+        <v>7154855000000</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>7154855000000</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>7154855000000</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>7154855000000</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/ECBASSETSW.xlsx
+++ b/GlobalReserves/BalSheets/ECBASSETSW.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1303"/>
+  <dimension ref="A1:G1311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33026,6 +33026,206 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1304" t="n">
+        <v>7154855000000</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>7154855000000</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>7154855000000</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>7154855000000</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1305" t="n">
+        <v>7168248000000</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>7168248000000</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>7168248000000</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>7168248000000</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1306" t="n">
+        <v>7153078000000</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>7153078000000</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>7153078000000</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>7153078000000</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1307" t="n">
+        <v>7135734000000</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>7135734000000</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>7135734000000</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>7135734000000</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1308" t="n">
+        <v>7141982000000</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>7141982000000</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>7141982000000</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>7141982000000</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1309" t="n">
+        <v>7066454000000</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>7066454000000</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>7066454000000</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>7066454000000</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1310" t="n">
+        <v>7057055000000</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>7057055000000</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>7057055000000</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>7057055000000</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1311" t="n">
+        <v>7056700000000</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>7056700000000</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>7056700000000</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>7056700000000</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/ECBASSETSW.xlsx
+++ b/GlobalReserves/BalSheets/ECBASSETSW.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1311"/>
+  <dimension ref="A1:G1313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33226,6 +33226,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1312" t="n">
+        <v>7056700000000</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>7056700000000</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>7056700000000</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>7056700000000</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
+      <c r="C1313" t="n">
+        <v>7037999000000</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>7037999000000</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>7037999000000</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>7037999000000</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/ECBASSETSW.xlsx
+++ b/GlobalReserves/BalSheets/ECBASSETSW.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1313"/>
+  <dimension ref="A1:G1316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33276,6 +33276,69 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B1314" t="inlineStr"/>
+      <c r="C1314" t="n">
+        <v>7037999000000</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>7037999000000</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>7037999000000</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>7037999000000</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B1315" t="inlineStr"/>
+      <c r="C1315" t="n">
+        <v>7019671000000</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>7019671000000</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>7019671000000</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>7019671000000</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B1316" t="inlineStr"/>
+      <c r="C1316" t="n">
+        <v>7001618000000</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>7001618000000</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>7001618000000</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>7001618000000</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/BalSheets/ECBASSETSW.xlsx
+++ b/GlobalReserves/BalSheets/ECBASSETSW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1321"/>
+  <dimension ref="A1:G1323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30771,6 +30771,9 @@
       <c r="A1321" s="2">
         <v>45247</v>
       </c>
+      <c r="B1321" t="s">
+        <v>7</v>
+      </c>
       <c r="C1321">
         <v>7001073000000</v>
       </c>
@@ -30784,6 +30787,46 @@
         <v>7001073000000</v>
       </c>
       <c r="G1321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:7">
+      <c r="A1322" s="2">
+        <v>45247</v>
+      </c>
+      <c r="C1322">
+        <v>7001073000000</v>
+      </c>
+      <c r="D1322">
+        <v>7001073000000</v>
+      </c>
+      <c r="E1322">
+        <v>7001073000000</v>
+      </c>
+      <c r="F1322">
+        <v>7001073000000</v>
+      </c>
+      <c r="G1322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:7">
+      <c r="A1323" s="2">
+        <v>45254</v>
+      </c>
+      <c r="C1323">
+        <v>6995799000000</v>
+      </c>
+      <c r="D1323">
+        <v>6995799000000</v>
+      </c>
+      <c r="E1323">
+        <v>6995799000000</v>
+      </c>
+      <c r="F1323">
+        <v>6995799000000</v>
+      </c>
+      <c r="G1323">
         <v>0</v>
       </c>
     </row>

--- a/GlobalReserves/BalSheets/ECBASSETSW.xlsx
+++ b/GlobalReserves/BalSheets/ECBASSETSW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1323"/>
+  <dimension ref="A1:G1328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30794,6 +30794,9 @@
       <c r="A1322" s="2">
         <v>45247</v>
       </c>
+      <c r="B1322" t="s">
+        <v>7</v>
+      </c>
       <c r="C1322">
         <v>7001073000000</v>
       </c>
@@ -30814,6 +30817,9 @@
       <c r="A1323" s="2">
         <v>45254</v>
       </c>
+      <c r="B1323" t="s">
+        <v>7</v>
+      </c>
       <c r="C1323">
         <v>6995799000000</v>
       </c>
@@ -30827,6 +30833,115 @@
         <v>6995799000000</v>
       </c>
       <c r="G1323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:7">
+      <c r="A1324" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1324">
+        <v>6995799000000</v>
+      </c>
+      <c r="D1324">
+        <v>6995799000000</v>
+      </c>
+      <c r="E1324">
+        <v>6995799000000</v>
+      </c>
+      <c r="F1324">
+        <v>6995799000000</v>
+      </c>
+      <c r="G1324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:7">
+      <c r="A1325" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1325">
+        <v>6995799000000</v>
+      </c>
+      <c r="D1325">
+        <v>6995799000000</v>
+      </c>
+      <c r="E1325">
+        <v>6995799000000</v>
+      </c>
+      <c r="F1325">
+        <v>6995799000000</v>
+      </c>
+      <c r="G1325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:7">
+      <c r="A1326" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1326">
+        <v>6995799000000</v>
+      </c>
+      <c r="D1326">
+        <v>6995799000000</v>
+      </c>
+      <c r="E1326">
+        <v>6995799000000</v>
+      </c>
+      <c r="F1326">
+        <v>6995799000000</v>
+      </c>
+      <c r="G1326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:7">
+      <c r="A1327" s="2">
+        <v>45254</v>
+      </c>
+      <c r="C1327">
+        <v>6995799000000</v>
+      </c>
+      <c r="D1327">
+        <v>6995799000000</v>
+      </c>
+      <c r="E1327">
+        <v>6995799000000</v>
+      </c>
+      <c r="F1327">
+        <v>6995799000000</v>
+      </c>
+      <c r="G1327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7">
+      <c r="A1328" s="2">
+        <v>45261</v>
+      </c>
+      <c r="C1328">
+        <v>7002047000000</v>
+      </c>
+      <c r="D1328">
+        <v>7002047000000</v>
+      </c>
+      <c r="E1328">
+        <v>7002047000000</v>
+      </c>
+      <c r="F1328">
+        <v>7002047000000</v>
+      </c>
+      <c r="G1328">
         <v>0</v>
       </c>
     </row>

--- a/GlobalReserves/BalSheets/ECBASSETSW.xlsx
+++ b/GlobalReserves/BalSheets/ECBASSETSW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1328"/>
+  <dimension ref="A1:G1345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30909,6 +30909,9 @@
       <c r="A1327" s="2">
         <v>45254</v>
       </c>
+      <c r="B1327" t="s">
+        <v>7</v>
+      </c>
       <c r="C1327">
         <v>6995799000000</v>
       </c>
@@ -30929,6 +30932,9 @@
       <c r="A1328" s="2">
         <v>45261</v>
       </c>
+      <c r="B1328" t="s">
+        <v>7</v>
+      </c>
       <c r="C1328">
         <v>7002047000000</v>
       </c>
@@ -30942,6 +30948,394 @@
         <v>7002047000000</v>
       </c>
       <c r="G1328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7">
+      <c r="A1329" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1329">
+        <v>7002047000000</v>
+      </c>
+      <c r="D1329">
+        <v>7002047000000</v>
+      </c>
+      <c r="E1329">
+        <v>7002047000000</v>
+      </c>
+      <c r="F1329">
+        <v>7002047000000</v>
+      </c>
+      <c r="G1329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7">
+      <c r="A1330" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1330">
+        <v>6993472000000</v>
+      </c>
+      <c r="D1330">
+        <v>6993472000000</v>
+      </c>
+      <c r="E1330">
+        <v>6993472000000</v>
+      </c>
+      <c r="F1330">
+        <v>6993472000000</v>
+      </c>
+      <c r="G1330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7">
+      <c r="A1331" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1331">
+        <v>6987406000000</v>
+      </c>
+      <c r="D1331">
+        <v>6987406000000</v>
+      </c>
+      <c r="E1331">
+        <v>6987406000000</v>
+      </c>
+      <c r="F1331">
+        <v>6987406000000</v>
+      </c>
+      <c r="G1331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7">
+      <c r="A1332" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1332">
+        <v>6987406000000</v>
+      </c>
+      <c r="D1332">
+        <v>6987406000000</v>
+      </c>
+      <c r="E1332">
+        <v>6987406000000</v>
+      </c>
+      <c r="F1332">
+        <v>6987406000000</v>
+      </c>
+      <c r="G1332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7">
+      <c r="A1333" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1333">
+        <v>6987406000000</v>
+      </c>
+      <c r="D1333">
+        <v>6987406000000</v>
+      </c>
+      <c r="E1333">
+        <v>6987406000000</v>
+      </c>
+      <c r="F1333">
+        <v>6987406000000</v>
+      </c>
+      <c r="G1333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7">
+      <c r="A1334" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1334">
+        <v>6987406000000</v>
+      </c>
+      <c r="D1334">
+        <v>6987406000000</v>
+      </c>
+      <c r="E1334">
+        <v>6987406000000</v>
+      </c>
+      <c r="F1334">
+        <v>6987406000000</v>
+      </c>
+      <c r="G1334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7">
+      <c r="A1335" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1335">
+        <v>6987406000000</v>
+      </c>
+      <c r="D1335">
+        <v>6987406000000</v>
+      </c>
+      <c r="E1335">
+        <v>6987406000000</v>
+      </c>
+      <c r="F1335">
+        <v>6987406000000</v>
+      </c>
+      <c r="G1335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7">
+      <c r="A1336" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1336">
+        <v>6987406000000</v>
+      </c>
+      <c r="D1336">
+        <v>6987406000000</v>
+      </c>
+      <c r="E1336">
+        <v>6987406000000</v>
+      </c>
+      <c r="F1336">
+        <v>6987406000000</v>
+      </c>
+      <c r="G1336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7">
+      <c r="A1337" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1337">
+        <v>6987406000000</v>
+      </c>
+      <c r="D1337">
+        <v>6987406000000</v>
+      </c>
+      <c r="E1337">
+        <v>6987406000000</v>
+      </c>
+      <c r="F1337">
+        <v>6987406000000</v>
+      </c>
+      <c r="G1337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7">
+      <c r="A1338" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1338">
+        <v>6987406000000</v>
+      </c>
+      <c r="D1338">
+        <v>6987406000000</v>
+      </c>
+      <c r="E1338">
+        <v>6987406000000</v>
+      </c>
+      <c r="F1338">
+        <v>6987406000000</v>
+      </c>
+      <c r="G1338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7">
+      <c r="A1339" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1339">
+        <v>6987406000000</v>
+      </c>
+      <c r="D1339">
+        <v>6987406000000</v>
+      </c>
+      <c r="E1339">
+        <v>6987406000000</v>
+      </c>
+      <c r="F1339">
+        <v>6987406000000</v>
+      </c>
+      <c r="G1339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7">
+      <c r="A1340" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1340">
+        <v>6987406000000</v>
+      </c>
+      <c r="D1340">
+        <v>6987406000000</v>
+      </c>
+      <c r="E1340">
+        <v>6987406000000</v>
+      </c>
+      <c r="F1340">
+        <v>6987406000000</v>
+      </c>
+      <c r="G1340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:7">
+      <c r="A1341" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1341">
+        <v>6987406000000</v>
+      </c>
+      <c r="D1341">
+        <v>6987406000000</v>
+      </c>
+      <c r="E1341">
+        <v>6987406000000</v>
+      </c>
+      <c r="F1341">
+        <v>6987406000000</v>
+      </c>
+      <c r="G1341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:7">
+      <c r="A1342" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1342">
+        <v>6987406000000</v>
+      </c>
+      <c r="D1342">
+        <v>6987406000000</v>
+      </c>
+      <c r="E1342">
+        <v>6987406000000</v>
+      </c>
+      <c r="F1342">
+        <v>6987406000000</v>
+      </c>
+      <c r="G1342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:7">
+      <c r="A1343" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1343">
+        <v>6987406000000</v>
+      </c>
+      <c r="D1343">
+        <v>6987406000000</v>
+      </c>
+      <c r="E1343">
+        <v>6987406000000</v>
+      </c>
+      <c r="F1343">
+        <v>6987406000000</v>
+      </c>
+      <c r="G1343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:7">
+      <c r="A1344" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1344">
+        <v>6899165000000</v>
+      </c>
+      <c r="D1344">
+        <v>6899165000000</v>
+      </c>
+      <c r="E1344">
+        <v>6899165000000</v>
+      </c>
+      <c r="F1344">
+        <v>6899165000000</v>
+      </c>
+      <c r="G1344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:7">
+      <c r="A1345" s="2">
+        <v>45278</v>
+      </c>
+      <c r="C1345">
+        <v>6899165000000</v>
+      </c>
+      <c r="D1345">
+        <v>6899165000000</v>
+      </c>
+      <c r="E1345">
+        <v>6899165000000</v>
+      </c>
+      <c r="F1345">
+        <v>6899165000000</v>
+      </c>
+      <c r="G1345">
         <v>0</v>
       </c>
     </row>

--- a/GlobalReserves/BalSheets/ECBASSETSW.xlsx
+++ b/GlobalReserves/BalSheets/ECBASSETSW.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1346"/>
+  <dimension ref="A1:G1350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34080,7 +34080,11 @@
       <c r="A1346" s="2" t="n">
         <v>45282</v>
       </c>
-      <c r="B1346" t="inlineStr"/>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>:ECBASSETSW</t>
+        </is>
+      </c>
       <c r="C1346" t="n">
         <v>6899165000000</v>
       </c>
@@ -34094,6 +34098,90 @@
         <v>6899165000000</v>
       </c>
       <c r="G1346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="B1347" t="inlineStr"/>
+      <c r="C1347" t="n">
+        <v>6899165000000</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>6899165000000</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>6899165000000</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>6899165000000</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B1348" t="inlineStr"/>
+      <c r="C1348" t="n">
+        <v>6935489000000</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>6935489000000</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>6935489000000</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>6935489000000</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B1349" t="inlineStr"/>
+      <c r="C1349" t="n">
+        <v>6919847000000</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>6919847000000</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>6919847000000</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>6919847000000</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B1350" t="inlineStr"/>
+      <c r="C1350" t="n">
+        <v>6923651000000</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>6923651000000</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>6923651000000</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>6923651000000</v>
+      </c>
+      <c r="G1350" t="n">
         <v>0</v>
       </c>
     </row>
